--- a/s_pics/no_results.xlsx
+++ b/s_pics/no_results.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,6 +419,20 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>iphone 12 mini púrpura</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>iphone 12 mini rojo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
